--- a/out/test/Figori_algorithm_21.xlsx
+++ b/out/test/Figori_algorithm_21.xlsx
@@ -392,1674 +392,1674 @@
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.10290000000000001</v>
+        <v>0.10249999999999999</v>
       </c>
       <c r="B1">
-        <v>0.1158</v>
+        <v>0</v>
       </c>
       <c r="C1">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="D1">
+        <v>5.4800000000000001E-2</v>
+      </c>
+      <c r="E1">
+        <v>6.7599999999999993E-2</v>
+      </c>
+      <c r="F1">
+        <v>0.121</v>
+      </c>
+      <c r="G1">
+        <v>9.8799999999999999E-2</v>
+      </c>
+      <c r="H1">
         <v>0</v>
       </c>
-      <c r="D1">
-        <v>0.1338</v>
-      </c>
-      <c r="E1">
-        <v>7.0099999999999996E-2</v>
-      </c>
-      <c r="F1">
-        <v>0.1366</v>
-      </c>
-      <c r="G1">
-        <v>1.4800000000000001E-2</v>
-      </c>
-      <c r="H1">
-        <v>5.3800000000000001E-2</v>
-      </c>
       <c r="I1">
-        <v>0.1196</v>
+        <v>0.12959999999999999</v>
       </c>
       <c r="J1">
-        <v>7.2700000000000001E-2</v>
+        <v>0.13730000000000001</v>
       </c>
       <c r="K1">
-        <v>0</v>
+        <v>1.43E-2</v>
       </c>
       <c r="L1">
-        <v>0.12870000000000001</v>
+        <v>0.12590000000000001</v>
       </c>
       <c r="M1">
-        <v>0.14119999999999999</v>
+        <v>9.7100000000000006E-2</v>
       </c>
       <c r="N1">
-        <v>1.66E-2</v>
+        <v>0.1009</v>
       </c>
       <c r="O1">
-        <v>5.2249999999999998E-2</v>
+        <v>0.12620000000000001</v>
       </c>
       <c r="P1">
-        <v>0.11509999999999999</v>
+        <v>0.12379999999999999</v>
       </c>
       <c r="Q1">
-        <v>5.3749999999999999E-2</v>
+        <v>7.2400000000000006E-2</v>
       </c>
       <c r="R1">
-        <v>7.1999999999999995E-2</v>
+        <v>0.1019</v>
       </c>
       <c r="S1">
-        <v>0</v>
+        <v>0.1031</v>
       </c>
       <c r="T1">
-        <v>9.8799999999999999E-2</v>
+        <v>9.6199999999999994E-2</v>
       </c>
       <c r="U1">
-        <v>6.9599999999999995E-2</v>
+        <v>5.2900000000000003E-2</v>
       </c>
       <c r="V1">
-        <v>0.1196</v>
+        <v>0.1321</v>
       </c>
       <c r="W1">
-        <v>0.1002</v>
+        <v>0.12139999999999999</v>
       </c>
       <c r="X1">
-        <v>0.1205</v>
+        <v>5.5E-2</v>
       </c>
       <c r="Y1">
-        <v>0.1033</v>
+        <v>1.47E-2</v>
       </c>
       <c r="Z1">
-        <v>0.1118</v>
+        <v>0.1047</v>
       </c>
       <c r="AA1">
-        <v>0.1163</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="AB1">
-        <v>5.6500000000000002E-2</v>
+        <v>7.1499999999999994E-2</v>
       </c>
       <c r="AC1">
-        <v>0.1026</v>
+        <v>0.1249</v>
       </c>
       <c r="AD1">
-        <v>0.1278</v>
+        <v>0.13150000000000001</v>
       </c>
       <c r="AE1">
-        <v>0.1048</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="AF1">
         <v>0</v>
       </c>
       <c r="AG1">
-        <v>0.12620000000000001</v>
+        <v>0.12089999999999999</v>
       </c>
       <c r="AH1">
-        <v>0.12790000000000001</v>
+        <v>0.1056</v>
       </c>
       <c r="AI1">
-        <v>7.2900000000000006E-2</v>
+        <v>1.5100000000000001E-2</v>
       </c>
       <c r="AJ1">
-        <v>0.1179</v>
+        <v>0.1399</v>
       </c>
       <c r="AK1">
-        <v>0.12690000000000001</v>
+        <v>0.13289999999999999</v>
       </c>
       <c r="AL1">
-        <v>0.1026</v>
+        <v>0.12590000000000001</v>
       </c>
       <c r="AM1">
-        <v>0.12889999999999999</v>
+        <v>0.1017</v>
       </c>
       <c r="AN1">
-        <v>0.123</v>
+        <v>7.0800000000000002E-2</v>
       </c>
       <c r="AO1">
-        <v>0.1115</v>
+        <v>0</v>
       </c>
       <c r="AP1">
-        <v>0.1396</v>
+        <v>7.2400000000000006E-2</v>
       </c>
       <c r="AQ1">
-        <v>9.7199999999999995E-2</v>
+        <v>0.11940000000000001</v>
       </c>
       <c r="AR1">
-        <v>0.13789999999999999</v>
+        <v>0.12909999999999999</v>
       </c>
       <c r="AS1">
-        <v>0.1045</v>
+        <v>0.1077</v>
       </c>
       <c r="AT1">
-        <v>0.14180000000000001</v>
+        <v>0.1071</v>
       </c>
       <c r="AU1">
-        <v>0.11899999999999999</v>
+        <v>1.5100000000000001E-2</v>
       </c>
       <c r="AV1">
-        <v>0</v>
+        <v>7.4399999999999994E-2</v>
       </c>
       <c r="AW1">
-        <v>9.9900000000000003E-2</v>
+        <v>1.41E-2</v>
       </c>
       <c r="AX1">
-        <v>5.21E-2</v>
+        <v>5.6099999999999997E-2</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.10780000000000001</v>
+        <v>9.1300000000000006E-2</v>
       </c>
       <c r="B2">
-        <v>0.1409</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="C2">
-        <v>2.2599999999999999E-2</v>
+        <v>0.1676</v>
       </c>
       <c r="D2">
-        <v>0.21029999999999999</v>
+        <v>0.2104</v>
       </c>
       <c r="E2">
-        <v>0.1419</v>
+        <v>0.129</v>
       </c>
       <c r="F2">
-        <v>0.93069999999999997</v>
+        <v>0.2661</v>
       </c>
       <c r="G2">
-        <v>7.1300000000000002E-2</v>
+        <v>0.20619999999999999</v>
       </c>
       <c r="H2">
-        <v>0.21990000000000001</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1525</v>
+        <v>0.32479999999999998</v>
       </c>
       <c r="J2">
-        <v>0.20749999999999999</v>
+        <v>0.60040000000000004</v>
       </c>
       <c r="K2">
-        <v>0.16039999999999999</v>
+        <v>0.12720000000000001</v>
       </c>
       <c r="L2">
-        <v>0.29370000000000002</v>
+        <v>0.15079999999999999</v>
       </c>
       <c r="M2">
-        <v>0.1716</v>
+        <v>6.2899999999999998E-2</v>
       </c>
       <c r="N2">
-        <v>2.5999999999999999E-3</v>
+        <v>0.54159999999999997</v>
       </c>
       <c r="O2">
-        <v>4.4150000000000002E-2</v>
+        <v>0.48380000000000001</v>
       </c>
       <c r="P2">
-        <v>3.4000000000000002E-2</v>
+        <v>0.1401</v>
       </c>
       <c r="Q2">
-        <v>8.2699999999999996E-2</v>
+        <v>7.4700000000000003E-2</v>
       </c>
       <c r="R2">
-        <v>0.56779999999999997</v>
+        <v>0.15409999999999999</v>
       </c>
       <c r="S2">
+        <v>8.1699999999999995E-2</v>
+      </c>
+      <c r="T2">
+        <v>0.1993</v>
+      </c>
+      <c r="U2">
+        <v>0.12640000000000001</v>
+      </c>
+      <c r="V2">
+        <v>0.14460000000000001</v>
+      </c>
+      <c r="W2">
+        <v>0.53010000000000002</v>
+      </c>
+      <c r="X2">
+        <v>0.17280000000000001</v>
+      </c>
+      <c r="Y2">
+        <v>0.1678</v>
+      </c>
+      <c r="Z2">
+        <v>0.28539999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>5.7700000000000001E-2</v>
+      </c>
+      <c r="AB2">
+        <v>0.21560000000000001</v>
+      </c>
+      <c r="AC2">
+        <v>0.1012</v>
+      </c>
+      <c r="AD2">
+        <v>0.2331</v>
+      </c>
+      <c r="AE2">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="AF2">
+        <v>2.1399999999999999E-2</v>
+      </c>
+      <c r="AG2">
+        <v>9.9500000000000005E-2</v>
+      </c>
+      <c r="AH2">
+        <v>0.1502</v>
+      </c>
+      <c r="AI2">
+        <v>7.0699999999999999E-2</v>
+      </c>
+      <c r="AJ2">
+        <v>0.67969999999999997</v>
+      </c>
+      <c r="AK2">
+        <v>0.1119</v>
+      </c>
+      <c r="AL2">
+        <v>0.15579999999999999</v>
+      </c>
+      <c r="AM2">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="AN2">
+        <v>0.21825</v>
+      </c>
+      <c r="AO2">
         <v>0</v>
       </c>
-      <c r="T2">
-        <v>0.17119999999999999</v>
-      </c>
-      <c r="U2">
-        <v>7.4499999999999997E-2</v>
-      </c>
-      <c r="V2">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="W2">
-        <v>0.2011</v>
-      </c>
-      <c r="X2">
-        <v>0.11409999999999999</v>
-      </c>
-      <c r="Y2">
-        <v>2.63E-2</v>
-      </c>
-      <c r="Z2">
-        <v>9.0899999999999995E-2</v>
-      </c>
-      <c r="AA2">
-        <v>0.11990000000000001</v>
-      </c>
-      <c r="AB2">
-        <v>0.24149999999999999</v>
-      </c>
-      <c r="AC2">
-        <v>6.3200000000000006E-2</v>
-      </c>
-      <c r="AD2">
-        <v>0.25509999999999999</v>
-      </c>
-      <c r="AE2">
-        <v>3.6200000000000003E-2</v>
-      </c>
-      <c r="AF2">
-        <v>0.1241</v>
-      </c>
-      <c r="AG2">
-        <v>0.28010000000000002</v>
-      </c>
-      <c r="AH2">
-        <v>0.1731</v>
-      </c>
-      <c r="AI2">
-        <v>5.3499999999999999E-2</v>
-      </c>
-      <c r="AJ2">
-        <v>0.114</v>
-      </c>
-      <c r="AK2">
-        <v>0.58540000000000003</v>
-      </c>
-      <c r="AL2">
-        <v>0.13869999999999999</v>
-      </c>
-      <c r="AM2">
-        <v>0.26129999999999998</v>
-      </c>
-      <c r="AN2">
-        <v>0.14349999999999999</v>
-      </c>
-      <c r="AO2">
-        <v>0.308</v>
-      </c>
       <c r="AP2">
-        <v>0.31240000000000001</v>
+        <v>0.1137</v>
       </c>
       <c r="AQ2">
-        <v>0.18479999999999999</v>
+        <v>0.1477</v>
       </c>
       <c r="AR2">
-        <v>0.60399999999999998</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="AS2">
-        <v>0.47260000000000002</v>
+        <v>0.2339</v>
       </c>
       <c r="AT2">
-        <v>0.2142</v>
+        <v>0.14610000000000001</v>
       </c>
       <c r="AU2">
-        <v>0.20150000000000001</v>
+        <v>0.18720000000000001</v>
       </c>
       <c r="AV2">
-        <v>0</v>
+        <v>7.9399999999999998E-2</v>
       </c>
       <c r="AW2">
-        <v>0.1641</v>
+        <v>1.46E-2</v>
       </c>
       <c r="AX2">
-        <v>8.9300000000000004E-2</v>
+        <v>7.3099999999999998E-2</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.126</v>
+        <v>0.24990000000000001</v>
       </c>
       <c r="B3">
-        <v>0.56569999999999998</v>
+        <v>6.2100000000000002E-2</v>
       </c>
       <c r="C3">
-        <v>0.1487</v>
+        <v>0.74170000000000003</v>
       </c>
       <c r="D3">
-        <v>0.59160000000000001</v>
+        <v>0.60140000000000005</v>
       </c>
       <c r="E3">
-        <v>0.48309999999999997</v>
+        <v>0.13450000000000001</v>
       </c>
       <c r="F3">
-        <v>0.79900000000000004</v>
+        <v>0.43809999999999999</v>
       </c>
       <c r="G3">
-        <v>0.23549999999999999</v>
+        <v>0.36120000000000002</v>
       </c>
       <c r="H3">
-        <v>8.5300000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.82150000000000001</v>
+        <v>0.7107</v>
       </c>
       <c r="J3">
-        <v>0.67169999999999996</v>
+        <v>0.44159999999999999</v>
       </c>
       <c r="K3">
-        <v>0.69620000000000004</v>
+        <v>0.8518</v>
       </c>
       <c r="L3">
-        <v>0.49199999999999999</v>
+        <v>0.2364</v>
       </c>
       <c r="M3">
-        <v>0.1174</v>
+        <v>0.6905</v>
       </c>
       <c r="N3">
-        <v>0.16470000000000001</v>
+        <v>0.30790000000000001</v>
       </c>
       <c r="O3">
-        <v>8.1000000000000003E-2</v>
+        <v>0.68469999999999998</v>
       </c>
       <c r="P3">
-        <v>0.51890000000000003</v>
+        <v>0.29459999999999997</v>
       </c>
       <c r="Q3">
-        <v>0.60399999999999998</v>
+        <v>0.32569999999999999</v>
       </c>
       <c r="R3">
-        <v>0.93769999999999998</v>
+        <v>0.60219999999999996</v>
       </c>
       <c r="S3">
-        <v>2.9899999999999999E-2</v>
+        <v>0.1588</v>
       </c>
       <c r="T3">
-        <v>0.46260000000000001</v>
+        <v>0.2954</v>
       </c>
       <c r="U3">
-        <v>0.35310000000000002</v>
+        <v>0.24060000000000001</v>
       </c>
       <c r="V3">
-        <v>0.19309999999999999</v>
+        <v>0.37540000000000001</v>
       </c>
       <c r="W3">
-        <v>0.31909999999999999</v>
+        <v>0.61550000000000005</v>
       </c>
       <c r="X3">
-        <v>0.16769999999999999</v>
+        <v>0.37740000000000001</v>
       </c>
       <c r="Y3">
-        <v>0.3145</v>
+        <v>0.32369999999999999</v>
       </c>
       <c r="Z3">
-        <v>0.51480000000000004</v>
+        <v>0.74839999999999995</v>
       </c>
       <c r="AA3">
-        <v>0.48830000000000001</v>
+        <v>0.33460000000000001</v>
       </c>
       <c r="AB3">
-        <v>0.19980000000000001</v>
+        <v>0.21049999999999999</v>
       </c>
       <c r="AC3">
-        <v>0.22270000000000001</v>
+        <v>0.85850000000000004</v>
       </c>
       <c r="AD3">
-        <v>0.37009999999999998</v>
+        <v>0.1464</v>
       </c>
       <c r="AE3">
-        <v>0.10539999999999999</v>
+        <v>0.43120000000000003</v>
       </c>
       <c r="AF3">
-        <v>0.60460000000000003</v>
+        <v>0.30959999999999999</v>
       </c>
       <c r="AG3">
-        <v>0.29139999999999999</v>
+        <v>0.49430000000000002</v>
       </c>
       <c r="AH3">
-        <v>0.30320000000000003</v>
+        <v>0.1384</v>
       </c>
       <c r="AI3">
-        <v>0.1555</v>
+        <v>0.1704</v>
       </c>
       <c r="AJ3">
-        <v>0.2084</v>
+        <v>0.73719999999999997</v>
       </c>
       <c r="AK3">
-        <v>0.67510000000000003</v>
+        <v>0.41570000000000001</v>
       </c>
       <c r="AL3">
-        <v>0.65259999999999996</v>
+        <v>0.12520000000000001</v>
       </c>
       <c r="AM3">
-        <v>0.47520000000000001</v>
+        <v>0.41720000000000002</v>
       </c>
       <c r="AN3">
-        <v>0.26369999999999999</v>
+        <v>0.15745000000000001</v>
       </c>
       <c r="AO3">
-        <v>0.13500000000000001</v>
+        <v>0.1113</v>
       </c>
       <c r="AP3">
-        <v>0.2742</v>
+        <v>0.33560000000000001</v>
       </c>
       <c r="AQ3">
-        <v>0.254</v>
+        <v>0.58750000000000002</v>
       </c>
       <c r="AR3">
-        <v>0.68640000000000001</v>
+        <v>0.47060000000000002</v>
       </c>
       <c r="AS3">
-        <v>0.50970000000000004</v>
+        <v>0.54930000000000001</v>
       </c>
       <c r="AT3">
-        <v>0.36870000000000003</v>
+        <v>0.24740000000000001</v>
       </c>
       <c r="AU3">
-        <v>0.44819999999999999</v>
+        <v>7.0499999999999993E-2</v>
       </c>
       <c r="AV3">
-        <v>0.1</v>
+        <v>0.20660000000000001</v>
       </c>
       <c r="AW3">
-        <v>0.3004</v>
+        <v>1.38E-2</v>
       </c>
       <c r="AX3">
-        <v>0.1452</v>
+        <v>0.29049999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.8619</v>
+        <v>0.1555</v>
       </c>
       <c r="B4">
-        <v>0.52939999999999998</v>
+        <v>2.2599999999999999E-2</v>
       </c>
       <c r="C4">
-        <v>0.17180000000000001</v>
+        <v>0.4501</v>
       </c>
       <c r="D4">
-        <v>0.63580000000000003</v>
+        <v>0.81559999999999999</v>
       </c>
       <c r="E4">
-        <v>0.55840000000000001</v>
+        <v>0.18160000000000001</v>
       </c>
       <c r="F4">
-        <v>0.73299999999999998</v>
+        <v>0.79410000000000003</v>
       </c>
       <c r="G4">
-        <v>0.31730000000000003</v>
+        <v>0.60009999999999997</v>
       </c>
       <c r="H4">
-        <v>0.26040000000000002</v>
+        <v>0.58050000000000002</v>
       </c>
       <c r="I4">
-        <v>0.88090000000000002</v>
+        <v>0.46650000000000003</v>
       </c>
       <c r="J4">
-        <v>0.76829999999999998</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="K4">
-        <v>0.53849999999999998</v>
+        <v>0.84889999999999999</v>
       </c>
       <c r="L4">
-        <v>0.51070000000000004</v>
+        <v>0.1036</v>
       </c>
       <c r="M4">
-        <v>0.86809999999999998</v>
+        <v>0.4597</v>
       </c>
       <c r="N4">
-        <v>3.8800000000000001E-2</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="O4">
-        <v>0.2492</v>
+        <v>0.18820000000000001</v>
       </c>
       <c r="P4">
-        <v>0.65569999999999995</v>
+        <v>0.24110000000000001</v>
       </c>
       <c r="Q4">
-        <v>0.75509999999999999</v>
+        <v>0.79590000000000005</v>
       </c>
       <c r="R4">
-        <v>0.92889999999999995</v>
+        <v>0.29070000000000001</v>
       </c>
       <c r="S4">
-        <v>0.39290000000000003</v>
+        <v>0.34810000000000002</v>
       </c>
       <c r="T4">
-        <v>0.45040000000000002</v>
+        <v>0.32840000000000003</v>
       </c>
       <c r="U4">
-        <v>0.63360000000000005</v>
+        <v>0.1545</v>
       </c>
       <c r="V4">
-        <v>0.40310000000000001</v>
+        <v>0.4355</v>
       </c>
       <c r="W4">
-        <v>0.41389999999999999</v>
+        <v>0.3296</v>
       </c>
       <c r="X4">
-        <v>0.52780000000000005</v>
+        <v>0.17755000000000001</v>
       </c>
       <c r="Y4">
-        <v>0.3911</v>
+        <v>0.67249999999999999</v>
       </c>
       <c r="Z4">
-        <v>0.54459999999999997</v>
+        <v>0.5736</v>
       </c>
       <c r="AA4">
-        <v>0.28620000000000001</v>
+        <v>0.27639999999999998</v>
       </c>
       <c r="AB4">
-        <v>0.1898</v>
+        <v>0.3518</v>
       </c>
       <c r="AC4">
-        <v>0.87949999999999995</v>
+        <v>0.67759999999999998</v>
       </c>
       <c r="AD4">
-        <v>0.59850000000000003</v>
+        <v>0.32229999999999998</v>
       </c>
       <c r="AE4">
-        <v>0.66700000000000004</v>
+        <v>0.51880000000000004</v>
       </c>
       <c r="AF4">
-        <v>0.82630000000000003</v>
+        <v>0.10059999999999999</v>
       </c>
       <c r="AG4">
-        <v>0.18340000000000001</v>
+        <v>0.32019999999999998</v>
       </c>
       <c r="AH4">
-        <v>0.76490000000000002</v>
+        <v>0.2349</v>
       </c>
       <c r="AI4">
-        <v>0.33939999999999998</v>
+        <v>0.54020000000000001</v>
       </c>
       <c r="AJ4">
-        <v>0.14879999999999999</v>
+        <v>0.71330000000000005</v>
       </c>
       <c r="AK4">
-        <v>0.81289999999999996</v>
+        <v>0.3654</v>
       </c>
       <c r="AL4">
-        <v>0.81</v>
+        <v>0.4355</v>
       </c>
       <c r="AM4">
-        <v>0.56430000000000002</v>
+        <v>0.66</v>
       </c>
       <c r="AN4">
-        <v>0.21779999999999999</v>
+        <v>0.58460000000000001</v>
       </c>
       <c r="AO4">
-        <v>0.48530000000000001</v>
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="AP4">
-        <v>0.3322</v>
+        <v>0.43930000000000002</v>
       </c>
       <c r="AQ4">
-        <v>0.39150000000000001</v>
+        <v>0.86680000000000001</v>
       </c>
       <c r="AR4">
-        <v>0.77039999999999997</v>
+        <v>0.44469999999999998</v>
       </c>
       <c r="AS4">
-        <v>0.55030000000000001</v>
+        <v>0.60740000000000005</v>
       </c>
       <c r="AT4">
-        <v>0.38279999999999997</v>
+        <v>0.29470000000000002</v>
       </c>
       <c r="AU4">
-        <v>0.47239999999999999</v>
+        <v>0.2722</v>
       </c>
       <c r="AV4">
-        <v>0.31109999999999999</v>
+        <v>0.26879999999999998</v>
       </c>
       <c r="AW4">
-        <v>0.71889999999999998</v>
+        <v>0.30969999999999998</v>
       </c>
       <c r="AX4">
-        <v>8.1699999999999995E-2</v>
+        <v>0.36370000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.86680000000000001</v>
+        <v>0.3019</v>
       </c>
       <c r="B5">
-        <v>0.40250000000000002</v>
+        <v>1.72E-2</v>
       </c>
       <c r="C5">
-        <v>0.30080000000000001</v>
+        <v>0.32969999999999999</v>
       </c>
       <c r="D5">
-        <v>0.50800000000000001</v>
+        <v>0.67159999999999997</v>
       </c>
       <c r="E5">
-        <v>0.67559999999999998</v>
+        <v>0.4289</v>
       </c>
       <c r="F5">
-        <v>0.67320000000000002</v>
+        <v>0.89649999999999996</v>
       </c>
       <c r="G5">
-        <v>0.2402</v>
+        <v>0.61870000000000003</v>
       </c>
       <c r="H5">
-        <v>0.18129999999999999</v>
+        <v>0.4153</v>
       </c>
       <c r="I5">
-        <v>0.68979999999999997</v>
+        <v>0.84019999999999995</v>
       </c>
       <c r="J5">
-        <v>0.76770000000000005</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="K5">
-        <v>0.77359999999999995</v>
+        <v>0.75490000000000002</v>
       </c>
       <c r="L5">
-        <v>0.61870000000000003</v>
+        <v>0.68169999999999997</v>
       </c>
       <c r="M5">
-        <v>0.75319999999999998</v>
+        <v>0.39829999999999999</v>
       </c>
       <c r="N5">
-        <v>0.21840000000000001</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="O5">
-        <v>0.1842</v>
+        <v>0.49859999999999999</v>
       </c>
       <c r="P5">
-        <v>0.88739999999999997</v>
+        <v>0.67410000000000003</v>
       </c>
       <c r="Q5">
-        <v>0.84470000000000001</v>
+        <v>0.60150000000000003</v>
       </c>
       <c r="R5">
-        <v>0.74409999999999998</v>
+        <v>0.33960000000000001</v>
       </c>
       <c r="S5">
-        <v>0.68489999999999995</v>
+        <v>0.23169999999999999</v>
       </c>
       <c r="T5">
-        <v>0.53249999999999997</v>
+        <v>0.71619999999999995</v>
       </c>
       <c r="U5">
-        <v>0.63590000000000002</v>
+        <v>0.44190000000000002</v>
       </c>
       <c r="V5">
-        <v>0.73740000000000006</v>
+        <v>0.1419</v>
       </c>
       <c r="W5">
-        <v>0.47510000000000002</v>
+        <v>0.34320000000000001</v>
       </c>
       <c r="X5">
-        <v>0.7177</v>
+        <v>0.15040000000000001</v>
       </c>
       <c r="Y5">
-        <v>0.27929999999999999</v>
+        <v>0.51429999999999998</v>
       </c>
       <c r="Z5">
-        <v>0.61539999999999995</v>
+        <v>0.62719999999999998</v>
       </c>
       <c r="AA5">
-        <v>0.41720000000000002</v>
+        <v>0.2341</v>
       </c>
       <c r="AB5">
-        <v>0.246</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="AC5">
-        <v>0.83350000000000002</v>
+        <v>0.81830000000000003</v>
       </c>
       <c r="AD5">
-        <v>0.45200000000000001</v>
+        <v>0.495</v>
       </c>
       <c r="AE5">
-        <v>0.53339999999999999</v>
+        <v>0.21060000000000001</v>
       </c>
       <c r="AF5">
-        <v>0.71760000000000002</v>
+        <v>9.01E-2</v>
       </c>
       <c r="AG5">
-        <v>0.43369999999999997</v>
+        <v>0.32590000000000002</v>
       </c>
       <c r="AH5">
-        <v>0.78790000000000004</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="AI5">
-        <v>0.25319999999999998</v>
+        <v>0.16439999999999999</v>
       </c>
       <c r="AJ5">
-        <v>0.12139999999999999</v>
+        <v>0.68600000000000005</v>
       </c>
       <c r="AK5">
-        <v>0.66020000000000001</v>
+        <v>0.6643</v>
       </c>
       <c r="AL5">
-        <v>0.69289999999999996</v>
+        <v>0.72799999999999998</v>
       </c>
       <c r="AM5">
-        <v>0.7117</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="AN5">
-        <v>0.52</v>
+        <v>0.60009999999999997</v>
       </c>
       <c r="AO5">
-        <v>0.62890000000000001</v>
+        <v>3.85E-2</v>
       </c>
       <c r="AP5">
-        <v>0.41830000000000001</v>
+        <v>0.34449999999999997</v>
       </c>
       <c r="AQ5">
-        <v>0.26910000000000001</v>
+        <v>0.86480000000000001</v>
       </c>
       <c r="AR5">
-        <v>0.78639999999999999</v>
+        <v>0.70750000000000002</v>
       </c>
       <c r="AS5">
-        <v>0.55400000000000005</v>
+        <v>0.68159999999999998</v>
       </c>
       <c r="AT5">
-        <v>0.62409999999999999</v>
+        <v>0.67420000000000002</v>
       </c>
       <c r="AU5">
-        <v>0.68830000000000002</v>
+        <v>0.38350000000000001</v>
       </c>
       <c r="AV5">
-        <v>0.24160000000000001</v>
+        <v>0.34570000000000001</v>
       </c>
       <c r="AW5">
-        <v>0.66800000000000004</v>
+        <v>0.28810000000000002</v>
       </c>
       <c r="AX5">
-        <v>0.17460000000000001</v>
+        <v>0.29470000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.81840000000000002</v>
+        <v>0.3498</v>
       </c>
       <c r="B6">
-        <v>0.80169999999999997</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="C6">
-        <v>0.78979999999999995</v>
+        <v>0.64800000000000002</v>
       </c>
       <c r="D6">
-        <v>0.52170000000000005</v>
+        <v>0.89339999999999997</v>
       </c>
       <c r="E6">
-        <v>0.70309999999999995</v>
+        <v>0.76729999999999998</v>
       </c>
       <c r="F6">
-        <v>0.78129999999999999</v>
+        <v>0.88280000000000003</v>
       </c>
       <c r="G6">
-        <v>0.3044</v>
+        <v>0.88449999999999995</v>
       </c>
       <c r="H6">
-        <v>0.19059999999999999</v>
+        <v>0.3856</v>
       </c>
       <c r="I6">
-        <v>0.60850000000000004</v>
+        <v>0.84730000000000005</v>
       </c>
       <c r="J6">
-        <v>0.74760000000000004</v>
+        <v>0.26729999999999998</v>
       </c>
       <c r="K6">
-        <v>0.83109999999999995</v>
+        <v>0.80049999999999999</v>
       </c>
       <c r="L6">
-        <v>0.67500000000000004</v>
+        <v>0.40689999999999998</v>
       </c>
       <c r="M6">
-        <v>0.88819999999999999</v>
+        <v>0.53010000000000002</v>
       </c>
       <c r="N6">
-        <v>0.25729999999999997</v>
+        <v>0.73740000000000006</v>
       </c>
       <c r="O6">
-        <v>0.62009999999999998</v>
+        <v>0.40439999999999998</v>
       </c>
       <c r="P6">
-        <v>0.77359999999999995</v>
+        <v>0.74560000000000004</v>
       </c>
       <c r="Q6">
-        <v>0.2049</v>
+        <v>0.58520000000000005</v>
       </c>
       <c r="R6">
-        <v>0.66910000000000003</v>
+        <v>0.45860000000000001</v>
       </c>
       <c r="S6">
-        <v>0.53</v>
+        <v>0.1113</v>
       </c>
       <c r="T6">
-        <v>0.47320000000000001</v>
+        <v>0.44109999999999999</v>
       </c>
       <c r="U6">
-        <v>0.61719999999999997</v>
+        <v>0.64659999999999995</v>
       </c>
       <c r="V6">
-        <v>0.39929999999999999</v>
+        <v>6.7900000000000002E-2</v>
       </c>
       <c r="W6">
-        <v>0.35149999999999998</v>
+        <v>0.21859999999999999</v>
       </c>
       <c r="X6">
-        <v>0.82609999999999995</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="Y6">
-        <v>0.39789999999999998</v>
+        <v>0.59009999999999996</v>
       </c>
       <c r="Z6">
-        <v>0.35670000000000002</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="AA6">
-        <v>0.53159999999999996</v>
+        <v>0.50139999999999996</v>
       </c>
       <c r="AB6">
-        <v>0.1472</v>
+        <v>0.69669999999999999</v>
       </c>
       <c r="AC6">
-        <v>0.79949999999999999</v>
+        <v>0.76419999999999999</v>
       </c>
       <c r="AD6">
-        <v>0.39429999999999998</v>
+        <v>0.67300000000000004</v>
       </c>
       <c r="AE6">
-        <v>0.61280000000000001</v>
+        <v>0.16719999999999999</v>
       </c>
       <c r="AF6">
-        <v>0.80659999999999998</v>
+        <v>0.53320000000000001</v>
       </c>
       <c r="AG6">
-        <v>0.80840000000000001</v>
+        <v>0.18509999999999999</v>
       </c>
       <c r="AH6">
-        <v>0.6008</v>
+        <v>4.3400000000000001E-2</v>
       </c>
       <c r="AI6">
-        <v>0.41839999999999999</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="AJ6">
-        <v>0.1017</v>
+        <v>0.92300000000000004</v>
       </c>
       <c r="AK6">
-        <v>0.79020000000000001</v>
+        <v>0.6421</v>
       </c>
       <c r="AL6">
-        <v>0.53420000000000001</v>
+        <v>0.71799999999999997</v>
       </c>
       <c r="AM6">
-        <v>0.58460000000000001</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="AN6">
-        <v>0.50980000000000003</v>
+        <v>0.53910000000000002</v>
       </c>
       <c r="AO6">
-        <v>0.67649999999999999</v>
+        <v>0.1018</v>
       </c>
       <c r="AP6">
-        <v>0.311</v>
+        <v>0.1099</v>
       </c>
       <c r="AQ6">
-        <v>0.26989999999999997</v>
+        <v>0.73880000000000001</v>
       </c>
       <c r="AR6">
-        <v>0.61339999999999995</v>
+        <v>0.73550000000000004</v>
       </c>
       <c r="AS6">
-        <v>0.58220000000000005</v>
+        <v>0.62560000000000004</v>
       </c>
       <c r="AT6">
-        <v>0.66739999999999999</v>
+        <v>0.50780000000000003</v>
       </c>
       <c r="AU6">
-        <v>0.80110000000000003</v>
+        <v>0.54720000000000002</v>
       </c>
       <c r="AV6">
-        <v>0.16850000000000001</v>
+        <v>0.30109999999999998</v>
       </c>
       <c r="AW6">
-        <v>0.67100000000000004</v>
+        <v>0.23910000000000001</v>
       </c>
       <c r="AX6">
-        <v>0.59150000000000003</v>
+        <v>0.63270000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.68689999999999996</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="B7">
-        <v>0.56340000000000001</v>
+        <v>0.31290000000000001</v>
       </c>
       <c r="C7">
-        <v>0.76800000000000002</v>
+        <v>0.72660000000000002</v>
       </c>
       <c r="D7">
-        <v>0.65959999999999996</v>
+        <v>0.73309999999999997</v>
       </c>
       <c r="E7">
-        <v>0.45879999999999999</v>
+        <v>0.74870000000000003</v>
       </c>
       <c r="F7">
-        <v>0.69830000000000003</v>
+        <v>0.76559999999999995</v>
       </c>
       <c r="G7">
-        <v>8.7800000000000003E-2</v>
+        <v>0.82979999999999998</v>
       </c>
       <c r="H7">
-        <v>0.63800000000000001</v>
+        <v>0.53369999999999995</v>
       </c>
       <c r="I7">
-        <v>0.42920000000000003</v>
+        <v>0.80589999999999995</v>
       </c>
       <c r="J7">
-        <v>0.68120000000000003</v>
+        <v>0.13519999999999999</v>
       </c>
       <c r="K7">
-        <v>0.69969999999999999</v>
+        <v>0.28070000000000001</v>
       </c>
       <c r="L7">
-        <v>0.50829999999999997</v>
+        <v>0.29089999999999999</v>
       </c>
       <c r="M7">
-        <v>0.92210000000000003</v>
+        <v>0.36530000000000001</v>
       </c>
       <c r="N7">
-        <v>0.217</v>
+        <v>0.5968</v>
       </c>
       <c r="O7">
-        <v>0.55669999999999997</v>
+        <v>0.22950000000000001</v>
       </c>
       <c r="P7">
-        <v>0.68220000000000003</v>
+        <v>0.41339999999999999</v>
       </c>
       <c r="Q7">
-        <v>0.15620000000000001</v>
+        <v>0.5373</v>
       </c>
       <c r="R7">
-        <v>0.74680000000000002</v>
+        <v>0.63360000000000005</v>
       </c>
       <c r="S7">
-        <v>0.31330000000000002</v>
+        <v>0.2407</v>
       </c>
       <c r="T7">
-        <v>0.48520000000000002</v>
+        <v>0.3644</v>
       </c>
       <c r="U7">
-        <v>0.60770000000000002</v>
+        <v>0.74</v>
       </c>
       <c r="V7">
-        <v>0.41210000000000002</v>
+        <v>0.19620000000000001</v>
       </c>
       <c r="W7">
-        <v>0.47899999999999998</v>
+        <v>0.26629999999999998</v>
       </c>
       <c r="X7">
-        <v>0.90859999999999996</v>
+        <v>0.38869999999999999</v>
       </c>
       <c r="Y7">
-        <v>0.47960000000000003</v>
+        <v>0.3236</v>
       </c>
       <c r="Z7">
-        <v>0.38640000000000002</v>
+        <v>0.65820000000000001</v>
       </c>
       <c r="AA7">
-        <v>0.63670000000000004</v>
+        <v>0.6583</v>
       </c>
       <c r="AB7">
-        <v>0.28060000000000002</v>
+        <v>0.77259999999999995</v>
       </c>
       <c r="AC7">
-        <v>0.85760000000000003</v>
+        <v>0.51300000000000001</v>
       </c>
       <c r="AD7">
-        <v>0.51280000000000003</v>
+        <v>0.80649999999999999</v>
       </c>
       <c r="AE7">
-        <v>0.62690000000000001</v>
+        <v>0.39410000000000001</v>
       </c>
       <c r="AF7">
-        <v>0.76029999999999998</v>
+        <v>0.7833</v>
       </c>
       <c r="AG7">
-        <v>0.50719999999999998</v>
+        <v>0.26469999999999999</v>
       </c>
       <c r="AH7">
-        <v>0.71599999999999997</v>
+        <v>0.2198</v>
       </c>
       <c r="AI7">
-        <v>0.39979999999999999</v>
+        <v>0.28029999999999999</v>
       </c>
       <c r="AJ7">
-        <v>0.17710000000000001</v>
+        <v>0.73170000000000002</v>
       </c>
       <c r="AK7">
-        <v>0.59850000000000003</v>
+        <v>0.38629999999999998</v>
       </c>
       <c r="AL7">
-        <v>0.45290000000000002</v>
+        <v>0.64370000000000005</v>
       </c>
       <c r="AM7">
-        <v>0.49230000000000002</v>
+        <v>0.29249999999999998</v>
       </c>
       <c r="AN7">
-        <v>0.5706</v>
+        <v>0.61950000000000005</v>
       </c>
       <c r="AO7">
-        <v>0.52549999999999997</v>
+        <v>0.23089999999999999</v>
       </c>
       <c r="AP7">
-        <v>0.1769</v>
+        <v>1.23E-2</v>
       </c>
       <c r="AQ7">
-        <v>0.2009</v>
+        <v>0.70779999999999998</v>
       </c>
       <c r="AR7">
-        <v>0.59399999999999997</v>
+        <v>0.74439999999999995</v>
       </c>
       <c r="AS7">
-        <v>0.72160000000000002</v>
+        <v>0.43759999999999999</v>
       </c>
       <c r="AT7">
-        <v>0.41810000000000003</v>
+        <v>0.31359999999999999</v>
       </c>
       <c r="AU7">
-        <v>0.65269999999999995</v>
+        <v>0.46310000000000001</v>
       </c>
       <c r="AV7">
-        <v>0.34229999999999999</v>
+        <v>0.34260000000000002</v>
       </c>
       <c r="AW7">
-        <v>0.74329999999999996</v>
+        <v>4.1200000000000001E-2</v>
       </c>
       <c r="AX7">
-        <v>0.66900000000000004</v>
+        <v>0.45789999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.75239999999999996</v>
+        <v>0.48459999999999998</v>
       </c>
       <c r="B8">
-        <v>0.45569999999999999</v>
+        <v>0.58720000000000006</v>
       </c>
       <c r="C8">
-        <v>0.61950000000000005</v>
+        <v>0.68740000000000001</v>
       </c>
       <c r="D8">
-        <v>0.56030000000000002</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="E8">
-        <v>0.48780000000000001</v>
+        <v>0.52080000000000004</v>
       </c>
       <c r="F8">
-        <v>0.84499999999999997</v>
+        <v>0.70369999999999999</v>
       </c>
       <c r="G8">
-        <v>0.01</v>
+        <v>0.79530000000000001</v>
       </c>
       <c r="H8">
-        <v>0.7036</v>
+        <v>0.30620000000000003</v>
       </c>
       <c r="I8">
-        <v>0.40500000000000003</v>
+        <v>0.51759999999999995</v>
       </c>
       <c r="J8">
-        <v>0.62080000000000002</v>
+        <v>0.18090000000000001</v>
       </c>
       <c r="K8">
-        <v>0.46800000000000003</v>
+        <v>0.2117</v>
       </c>
       <c r="L8">
-        <v>0.2545</v>
+        <v>0.44569999999999999</v>
       </c>
       <c r="M8">
-        <v>0.68769999999999998</v>
+        <v>0.58150000000000002</v>
       </c>
       <c r="N8">
-        <v>0.27150000000000002</v>
+        <v>0.39140000000000003</v>
       </c>
       <c r="O8">
-        <v>0.78720000000000001</v>
+        <v>7.3499999999999996E-2</v>
       </c>
       <c r="P8">
-        <v>0.58830000000000005</v>
+        <v>0.36170000000000002</v>
       </c>
       <c r="Q8">
-        <v>6.9500000000000006E-2</v>
+        <v>0.65500000000000003</v>
       </c>
       <c r="R8">
-        <v>0.7006</v>
+        <v>0.53939999999999999</v>
       </c>
       <c r="S8">
-        <v>0.1479</v>
+        <v>0.26019999999999999</v>
       </c>
       <c r="T8">
-        <v>0.45</v>
+        <v>0.53610000000000002</v>
       </c>
       <c r="U8">
-        <v>0.79100000000000004</v>
+        <v>0.82569999999999999</v>
       </c>
       <c r="V8">
-        <v>0.46829999999999999</v>
+        <v>0.45469999999999999</v>
       </c>
       <c r="W8">
-        <v>0.44080000000000003</v>
+        <v>0.51070000000000004</v>
       </c>
       <c r="X8">
-        <v>0.77080000000000004</v>
+        <v>0.29020000000000001</v>
       </c>
       <c r="Y8">
-        <v>0.67820000000000003</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="Z8">
-        <v>0.5222</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="AA8">
-        <v>0.4466</v>
+        <v>0.5917</v>
       </c>
       <c r="AB8">
-        <v>0.6179</v>
+        <v>0.68610000000000004</v>
       </c>
       <c r="AC8">
-        <v>0.96589999999999998</v>
+        <v>0.37759999999999999</v>
       </c>
       <c r="AD8">
-        <v>0.39750000000000002</v>
+        <v>0.39029999999999998</v>
       </c>
       <c r="AE8">
-        <v>0.81769999999999998</v>
+        <v>0.39489999999999997</v>
       </c>
       <c r="AF8">
-        <v>0.71079999999999999</v>
+        <v>0.67390000000000005</v>
       </c>
       <c r="AG8">
-        <v>0.37730000000000002</v>
+        <v>0.33279999999999998</v>
       </c>
       <c r="AH8">
-        <v>0.63600000000000001</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AI8">
-        <v>9.8699999999999996E-2</v>
+        <v>0.34239999999999998</v>
       </c>
       <c r="AJ8">
-        <v>0.26369999999999999</v>
+        <v>0.68579999999999997</v>
       </c>
       <c r="AK8">
-        <v>0.44350000000000001</v>
+        <v>0.36330000000000001</v>
       </c>
       <c r="AL8">
-        <v>0.37669999999999998</v>
+        <v>0.63009999999999999</v>
       </c>
       <c r="AM8">
-        <v>0.49220000000000003</v>
+        <v>0.22109999999999999</v>
       </c>
       <c r="AN8">
-        <v>0.52190000000000003</v>
+        <v>0.49259999999999998</v>
       </c>
       <c r="AO8">
-        <v>0.69130000000000003</v>
+        <v>0.2853</v>
       </c>
       <c r="AP8">
-        <v>0.3679</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="AQ8">
-        <v>0.38669999999999999</v>
+        <v>0.69840000000000002</v>
       </c>
       <c r="AR8">
-        <v>0.54149999999999998</v>
+        <v>0.67269999999999996</v>
       </c>
       <c r="AS8">
-        <v>0.78839999999999999</v>
+        <v>0.45140000000000002</v>
       </c>
       <c r="AT8">
-        <v>0.53959999999999997</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="AU8">
-        <v>0.48049999999999998</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="AV8">
-        <v>0.26019999999999999</v>
+        <v>0.37459999999999999</v>
       </c>
       <c r="AW8">
-        <v>0.51239999999999997</v>
+        <v>4.9700000000000001E-2</v>
       </c>
       <c r="AX8">
-        <v>0.45750000000000002</v>
+        <v>0.44319999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.50370000000000004</v>
+        <v>0.37009999999999998</v>
       </c>
       <c r="B9">
-        <v>0.64829999999999999</v>
+        <v>0.38950000000000001</v>
       </c>
       <c r="C9">
-        <v>0.56810000000000005</v>
+        <v>0.68920000000000003</v>
       </c>
       <c r="D9">
-        <v>0.60960000000000003</v>
+        <v>0.96260000000000001</v>
       </c>
       <c r="E9">
-        <v>0.32069999999999999</v>
+        <v>0.5847</v>
       </c>
       <c r="F9">
-        <v>0.76290000000000002</v>
+        <v>0.67620000000000002</v>
       </c>
       <c r="G9">
-        <v>2.7E-2</v>
+        <v>0.61260000000000003</v>
       </c>
       <c r="H9">
-        <v>0.59619999999999995</v>
+        <v>0.32190000000000002</v>
       </c>
       <c r="I9">
-        <v>0.31240000000000001</v>
+        <v>0.2762</v>
       </c>
       <c r="J9">
-        <v>0.84460000000000002</v>
+        <v>0.28699999999999998</v>
       </c>
       <c r="K9">
-        <v>0.48420000000000002</v>
+        <v>8.1799999999999998E-2</v>
       </c>
       <c r="L9">
-        <v>0.33939999999999998</v>
+        <v>0.41239999999999999</v>
       </c>
       <c r="M9">
-        <v>0.57950000000000002</v>
+        <v>0.4294</v>
       </c>
       <c r="N9">
-        <v>0.3725</v>
+        <v>0.36940000000000001</v>
       </c>
       <c r="O9">
-        <v>0.75509999999999999</v>
+        <v>6.9800000000000001E-2</v>
       </c>
       <c r="P9">
-        <v>0.40510000000000002</v>
+        <v>0.26440000000000002</v>
       </c>
       <c r="Q9">
-        <v>9.5299999999999996E-2</v>
+        <v>0.71879999999999999</v>
       </c>
       <c r="R9">
-        <v>0.71419999999999995</v>
+        <v>0.34739999999999999</v>
       </c>
       <c r="S9">
-        <v>0.159</v>
+        <v>0.4098</v>
       </c>
       <c r="T9">
-        <v>0.64839999999999998</v>
+        <v>0.7802</v>
       </c>
       <c r="U9">
-        <v>0.81279999999999997</v>
+        <v>0.92810000000000004</v>
       </c>
       <c r="V9">
-        <v>0.57479999999999998</v>
+        <v>0.38419999999999999</v>
       </c>
       <c r="W9">
-        <v>0.3468</v>
+        <v>0.53779999999999994</v>
       </c>
       <c r="X9">
-        <v>0.60399999999999998</v>
+        <v>0.3458</v>
       </c>
       <c r="Y9">
-        <v>0.71250000000000002</v>
+        <v>0.2349</v>
       </c>
       <c r="Z9">
-        <v>0.52239999999999998</v>
+        <v>0.58230000000000004</v>
       </c>
       <c r="AA9">
-        <v>0.49509999999999998</v>
+        <v>0.69850000000000001</v>
       </c>
       <c r="AB9">
-        <v>0.1434</v>
+        <v>0.75880000000000003</v>
       </c>
       <c r="AC9">
-        <v>0.73440000000000005</v>
+        <v>0.59589999999999999</v>
       </c>
       <c r="AD9">
-        <v>0.54010000000000002</v>
+        <v>0.34300000000000003</v>
       </c>
       <c r="AE9">
-        <v>0.47720000000000001</v>
+        <v>0.249</v>
       </c>
       <c r="AF9">
-        <v>0.69099999999999995</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="AG9">
-        <v>0.13589999999999999</v>
+        <v>0.20169999999999999</v>
       </c>
       <c r="AH9">
-        <v>0.43309999999999998</v>
+        <v>0.3019</v>
       </c>
       <c r="AI9">
-        <v>0.35949999999999999</v>
+        <v>0.24829999999999999</v>
       </c>
       <c r="AJ9">
-        <v>0.4042</v>
+        <v>0.58779999999999999</v>
       </c>
       <c r="AK9">
-        <v>0.59089999999999998</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="AL9">
-        <v>0.41389999999999999</v>
+        <v>0.36470000000000002</v>
       </c>
       <c r="AM9">
-        <v>0.71840000000000004</v>
+        <v>0.48949999999999999</v>
       </c>
       <c r="AN9">
-        <v>0.51129999999999998</v>
+        <v>0.5867</v>
       </c>
       <c r="AO9">
-        <v>0.40660000000000002</v>
+        <v>0.2853</v>
       </c>
       <c r="AP9">
-        <v>0.38059999999999999</v>
+        <v>0.25530000000000003</v>
       </c>
       <c r="AQ9">
-        <v>0.24379999999999999</v>
+        <v>0.54630000000000001</v>
       </c>
       <c r="AR9">
-        <v>0.58420000000000005</v>
+        <v>0.60160000000000002</v>
       </c>
       <c r="AS9">
-        <v>0.89570000000000005</v>
+        <v>0.64259999999999995</v>
       </c>
       <c r="AT9">
-        <v>0.39889999999999998</v>
+        <v>0.61209999999999998</v>
       </c>
       <c r="AU9">
-        <v>0.3841</v>
+        <v>0.2417</v>
       </c>
       <c r="AV9">
-        <v>0.55830000000000002</v>
+        <v>0.46639999999999998</v>
       </c>
       <c r="AW9">
-        <v>0.29260000000000003</v>
+        <v>0.1065</v>
       </c>
       <c r="AX9">
-        <v>0.58889999999999998</v>
+        <v>0.30080000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.51590000000000003</v>
+        <v>0.28789999999999999</v>
       </c>
       <c r="B10">
-        <v>0.59360000000000002</v>
+        <v>0.3236</v>
       </c>
       <c r="C10">
-        <v>0.60389999999999999</v>
+        <v>0.6744</v>
       </c>
       <c r="D10">
-        <v>0.67330000000000001</v>
+        <v>0.57269999999999999</v>
       </c>
       <c r="E10">
-        <v>0.34</v>
+        <v>0.62990000000000002</v>
       </c>
       <c r="F10">
-        <v>0.85040000000000004</v>
+        <v>0.57179999999999997</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.53839999999999999</v>
       </c>
       <c r="H10">
-        <v>0.66339999999999999</v>
+        <v>0.14410000000000001</v>
       </c>
       <c r="I10">
-        <v>0.46700000000000003</v>
+        <v>0.3332</v>
       </c>
       <c r="J10">
-        <v>0.77049999999999996</v>
+        <v>0.217</v>
       </c>
       <c r="K10">
-        <v>0.53659999999999997</v>
+        <v>0.1298</v>
       </c>
       <c r="L10">
-        <v>0.2394</v>
+        <v>0.72760000000000002</v>
       </c>
       <c r="M10">
-        <v>0.67589999999999995</v>
+        <v>0.52769999999999995</v>
       </c>
       <c r="N10">
-        <v>0.3004</v>
+        <v>0.375</v>
       </c>
       <c r="O10">
-        <v>0.71120000000000005</v>
+        <v>0.30869999999999997</v>
       </c>
       <c r="P10">
-        <v>0.30549999999999999</v>
+        <v>0.13639999999999999</v>
       </c>
       <c r="Q10">
-        <v>0.22239999999999999</v>
+        <v>0.77200000000000002</v>
       </c>
       <c r="R10">
-        <v>0.53469999999999995</v>
+        <v>0.42309999999999998</v>
       </c>
       <c r="S10">
-        <v>0.1182</v>
+        <v>0.47049999999999997</v>
       </c>
       <c r="T10">
-        <v>0.50960000000000005</v>
+        <v>0.91890000000000005</v>
       </c>
       <c r="U10">
-        <v>0.69289999999999996</v>
+        <v>0.83899999999999997</v>
       </c>
       <c r="V10">
-        <v>0.87590000000000001</v>
+        <v>0.39460000000000001</v>
       </c>
       <c r="W10">
-        <v>0.441</v>
+        <v>0.37530000000000002</v>
       </c>
       <c r="X10">
-        <v>0.81340000000000001</v>
+        <v>0.50139999999999996</v>
       </c>
       <c r="Y10">
-        <v>0.61009999999999998</v>
+        <v>4.4200000000000003E-2</v>
       </c>
       <c r="Z10">
-        <v>0.64319999999999999</v>
+        <v>0.62480000000000002</v>
       </c>
       <c r="AA10">
-        <v>0.47010000000000002</v>
+        <v>0.29220000000000002</v>
       </c>
       <c r="AB10">
-        <v>0.11899999999999999</v>
+        <v>0.58520000000000005</v>
       </c>
       <c r="AC10">
-        <v>0.59889999999999999</v>
+        <v>0.41739999999999999</v>
       </c>
       <c r="AD10">
-        <v>0.63170000000000004</v>
+        <v>0.43380000000000002</v>
       </c>
       <c r="AE10">
-        <v>0.4582</v>
+        <v>0.20150000000000001</v>
       </c>
       <c r="AF10">
-        <v>0.66969999999999996</v>
+        <v>0.62250000000000005</v>
       </c>
       <c r="AG10">
-        <v>0.1421</v>
+        <v>0.37159999999999999</v>
       </c>
       <c r="AH10">
-        <v>0.51670000000000005</v>
+        <v>0.3952</v>
       </c>
       <c r="AI10">
-        <v>0.43509999999999999</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="AJ10">
-        <v>0.56140000000000001</v>
+        <v>0.49709999999999999</v>
       </c>
       <c r="AK10">
-        <v>0.62980000000000003</v>
+        <v>0.2351</v>
       </c>
       <c r="AL10">
-        <v>0.69259999999999999</v>
+        <v>0.50549999999999995</v>
       </c>
       <c r="AM10">
-        <v>0.67349999999999999</v>
+        <v>0.72789999999999999</v>
       </c>
       <c r="AN10">
-        <v>0.3357</v>
+        <v>0.76559999999999995</v>
       </c>
       <c r="AO10">
-        <v>0.38290000000000002</v>
+        <v>0.1346</v>
       </c>
       <c r="AP10">
-        <v>0.44929999999999998</v>
+        <v>0.28899999999999998</v>
       </c>
       <c r="AQ10">
-        <v>0.30299999999999999</v>
+        <v>0.42599999999999999</v>
       </c>
       <c r="AR10">
-        <v>0.53269999999999995</v>
+        <v>0.56869999999999998</v>
       </c>
       <c r="AS10">
-        <v>0.87960000000000005</v>
+        <v>0.4289</v>
       </c>
       <c r="AT10">
-        <v>0.34620000000000001</v>
+        <v>0.4536</v>
       </c>
       <c r="AU10">
-        <v>0.3473</v>
+        <v>0.1047</v>
       </c>
       <c r="AV10">
-        <v>0.62270000000000003</v>
+        <v>0.40150000000000002</v>
       </c>
       <c r="AW10">
-        <v>0.31869999999999998</v>
+        <v>0.21390000000000001</v>
       </c>
       <c r="AX10">
-        <v>0.46929999999999999</v>
+        <v>0.2387</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.46039999999999998</v>
+        <v>0.64249999999999996</v>
       </c>
       <c r="B11">
-        <v>0.51449999999999996</v>
+        <v>0.50229999999999997</v>
       </c>
       <c r="C11">
-        <v>0.36430000000000001</v>
+        <v>0.64300000000000002</v>
       </c>
       <c r="D11">
-        <v>0.56079999999999997</v>
+        <v>0.62639999999999996</v>
       </c>
       <c r="E11">
-        <v>0.52759999999999996</v>
+        <v>0.54810000000000003</v>
       </c>
       <c r="F11">
-        <v>0.85940000000000005</v>
+        <v>0.27829999999999999</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.65069999999999995</v>
       </c>
       <c r="H11">
-        <v>0.2581</v>
+        <v>0.39639999999999997</v>
       </c>
       <c r="I11">
-        <v>0.43969999999999998</v>
+        <v>0.40639999999999998</v>
       </c>
       <c r="J11">
-        <v>0.79379999999999995</v>
+        <v>0.23150000000000001</v>
       </c>
       <c r="K11">
-        <v>0.48580000000000001</v>
+        <v>0.36280000000000001</v>
       </c>
       <c r="L11">
-        <v>0.32829999999999998</v>
+        <v>0.39439999999999997</v>
       </c>
       <c r="M11">
-        <v>0.66210000000000002</v>
+        <v>0.70589999999999997</v>
       </c>
       <c r="N11">
-        <v>0.19939999999999999</v>
+        <v>0.36280000000000001</v>
       </c>
       <c r="O11">
-        <v>0.63090000000000002</v>
+        <v>0.30449999999999999</v>
       </c>
       <c r="P11">
-        <v>0.1348</v>
+        <v>0.18290000000000001</v>
       </c>
       <c r="Q11">
-        <v>0.14649999999999999</v>
+        <v>0.55289999999999995</v>
       </c>
       <c r="R11">
-        <v>0.59130000000000005</v>
+        <v>0.54910000000000003</v>
       </c>
       <c r="S11">
-        <v>0.37269999999999998</v>
+        <v>0.57509999999999994</v>
       </c>
       <c r="T11">
-        <v>0.37140000000000001</v>
+        <v>0.89959999999999996</v>
       </c>
       <c r="U11">
-        <v>0.87209999999999999</v>
+        <v>0.93140000000000001</v>
       </c>
       <c r="V11">
-        <v>0.78320000000000001</v>
+        <v>0.50419999999999998</v>
       </c>
       <c r="W11">
-        <v>0.78359999999999996</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="X11">
-        <v>0.62219999999999998</v>
+        <v>0.63549999999999995</v>
       </c>
       <c r="Y11">
-        <v>0.40400000000000003</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="Z11">
-        <v>0.79569999999999996</v>
+        <v>0.66490000000000005</v>
       </c>
       <c r="AA11">
-        <v>0.64149999999999996</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="AB11">
-        <v>0.32629999999999998</v>
+        <v>0.52869999999999995</v>
       </c>
       <c r="AC11">
-        <v>0.59440000000000004</v>
+        <v>0.64190000000000003</v>
       </c>
       <c r="AD11">
-        <v>0.47389999999999999</v>
+        <v>0.43419999999999997</v>
       </c>
       <c r="AE11">
-        <v>0.47799999999999998</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="AF11">
-        <v>0.62670000000000003</v>
+        <v>0.32929999999999998</v>
       </c>
       <c r="AG11">
-        <v>0.4385</v>
+        <v>0.64510000000000001</v>
       </c>
       <c r="AH11">
-        <v>0.58720000000000006</v>
+        <v>0.41060000000000002</v>
       </c>
       <c r="AI11">
-        <v>0.56730000000000003</v>
+        <v>0.32119999999999999</v>
       </c>
       <c r="AJ11">
-        <v>0.3765</v>
+        <v>0.46289999999999998</v>
       </c>
       <c r="AK11">
-        <v>0.66439999999999999</v>
+        <v>0.2258</v>
       </c>
       <c r="AL11">
-        <v>0.7228</v>
+        <v>0.82310000000000005</v>
       </c>
       <c r="AM11">
-        <v>0.64270000000000005</v>
+        <v>0.85040000000000004</v>
       </c>
       <c r="AN11">
-        <v>0.35020000000000001</v>
+        <v>0.65539999999999998</v>
       </c>
       <c r="AO11">
-        <v>0.66290000000000004</v>
+        <v>0.26379999999999998</v>
       </c>
       <c r="AP11">
-        <v>0.40400000000000003</v>
+        <v>0.52529999999999999</v>
       </c>
       <c r="AQ11">
-        <v>0.38669999999999999</v>
+        <v>0.50680000000000003</v>
       </c>
       <c r="AR11">
-        <v>0.63280000000000003</v>
+        <v>0.71079999999999999</v>
       </c>
       <c r="AS11">
-        <v>0.69110000000000005</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="AT11">
-        <v>0.4451</v>
+        <v>0.38059999999999999</v>
       </c>
       <c r="AU11">
-        <v>0.24490000000000001</v>
+        <v>0.1283</v>
       </c>
       <c r="AV11">
-        <v>0.65880000000000005</v>
+        <v>0.48180000000000001</v>
       </c>
       <c r="AW11">
-        <v>0.4234</v>
+        <v>0.2104</v>
       </c>
       <c r="AX11">
-        <v>0.30780000000000002</v>
+        <v>0.1186</v>
       </c>
     </row>
   </sheetData>
